--- a/比赛记录/2024 国赛校赛/数据(1).xlsx
+++ b/比赛记录/2024 国赛校赛/数据(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Normal_tools\Github_desktop\Clone_shop\Mathematical-Modeling\比赛记录\2024 国赛校赛\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF03548-3955-4BC6-BDAE-F1428BF97A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D23991-91C1-4649-AB13-C9193B7DC0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC17"/>
+  <dimension ref="A1:BB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BD17" sqref="BD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -467,10 +467,9 @@
     <col min="52" max="52" width="15.1796875" customWidth="1"/>
     <col min="53" max="53" width="12.36328125" customWidth="1"/>
     <col min="54" max="54" width="14.08984375" customWidth="1"/>
-    <col min="55" max="55" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,11 +632,8 @@
       <c r="BB1" s="2">
         <v>44896</v>
       </c>
-      <c r="BC1" s="4">
-        <v>2023</v>
-      </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -800,11 +796,8 @@
       <c r="BB2" s="3">
         <v>120472.4</v>
       </c>
-      <c r="BC2" s="3">
-        <v>126058.21</v>
-      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -967,11 +960,8 @@
       <c r="BB3" s="3">
         <v>1411.75</v>
       </c>
-      <c r="BC3" s="3">
-        <v>1409.67</v>
-      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1134,9 +1124,8 @@
       <c r="BB4" s="3">
         <v>15684.626759999999</v>
       </c>
-      <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1299,11 +1288,8 @@
       <c r="BB5" s="3">
         <v>5409.5551999999998</v>
       </c>
-      <c r="BC5" s="3">
-        <v>5720</v>
-      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1466,11 +1452,8 @@
       <c r="BB6" s="3">
         <v>56</v>
       </c>
-      <c r="BC6" s="3">
-        <v>55.3</v>
-      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1633,9 +1616,8 @@
       <c r="BB7" s="3">
         <v>18</v>
       </c>
-      <c r="BC7" s="4"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1798,9 +1780,8 @@
       <c r="BB8" s="3">
         <v>8.4</v>
       </c>
-      <c r="BC8" s="4"/>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1963,9 +1944,8 @@
       <c r="BB9" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="BC9" s="4"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1978,7 +1958,7 @@
         <v>273.20831999999996</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" ref="D10:BC10" si="0">D5*D6/100</f>
+        <f t="shared" ref="D10:BB10" si="0">D5*D6/100</f>
         <v>288.86574999999999</v>
       </c>
       <c r="E10" s="4">
@@ -2181,12 +2161,8 @@
         <f t="shared" si="0"/>
         <v>3029.3509119999999</v>
       </c>
-      <c r="BC10" s="4">
-        <f t="shared" si="0"/>
-        <v>3163.16</v>
-      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -2402,9 +2378,8 @@
         <f t="shared" si="1"/>
         <v>973.71993599999996</v>
       </c>
-      <c r="BC11" s="4"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -2620,9 +2595,8 @@
         <f t="shared" si="2"/>
         <v>454.40263680000004</v>
       </c>
-      <c r="BC12" s="4"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -2838,9 +2812,8 @@
         <f t="shared" si="3"/>
         <v>952.08171520000008</v>
       </c>
-      <c r="BC13" s="4"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -3003,11 +2976,8 @@
       <c r="BB14" s="6">
         <v>1019080</v>
       </c>
-      <c r="BC14" s="5">
-        <v>1019080</v>
-      </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -3170,11 +3140,8 @@
       <c r="BB15" s="5">
         <v>2129.2718199999999</v>
       </c>
-      <c r="BC15" s="5">
-        <v>2022.93</v>
-      </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -3336,9 +3303,6 @@
       </c>
       <c r="BB16" s="5">
         <v>311844.37</v>
-      </c>
-      <c r="BC16" s="6">
-        <v>329116</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
